--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4B7D6-19C2-4192-B78A-9CB0E5453F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC62781-B26F-47F9-8E32-012F82012850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
   <si>
     <t>Taches de debuggage</t>
   </si>
@@ -219,9 +219,6 @@
     <t>En VPL ou en scratch, mauvais seuil</t>
   </si>
   <si>
-    <t>Possible en VPL (preuve) et en scratch, utiliser les lumières pour les modes</t>
-  </si>
-  <si>
     <t>Pas possible en VPL ou en scratch -&gt; propre à python</t>
   </si>
   <si>
@@ -397,6 +394,12 @@
   </si>
   <si>
     <t>2 versions: avec des variables, et harcodé. Une novice m'a dit qu'elle preferait avoir les valeurs bruts (magic numbers / hardcodé)</t>
+  </si>
+  <si>
+    <t>2 versions: un grand labyrinth, plus complexe et plus interressant, et un plus petit, plus rapide, plus facile à debugger</t>
+  </si>
+  <si>
+    <t>Possible en VPL (preuve) et en scratch, utiliser les lumières pour les etats</t>
   </si>
 </sst>
 </file>
@@ -525,16 +528,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -545,6 +539,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,16 +628,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>71717</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39059</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>279788</xdr:rowOff>
+      <xdr:rowOff>160045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1205753</xdr:colOff>
+      <xdr:colOff>1817914</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>512221</xdr:rowOff>
+      <xdr:rowOff>583349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -663,8 +666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71717" y="1005929"/>
-          <a:ext cx="1429871" cy="779280"/>
+          <a:off x="332973" y="1085331"/>
+          <a:ext cx="1778855" cy="967589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,16 +678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195944</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>92136</xdr:rowOff>
+      <xdr:rowOff>48592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1253079</xdr:colOff>
+      <xdr:colOff>1883230</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>845521</xdr:rowOff>
+      <xdr:rowOff>903864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -713,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2100230"/>
-          <a:ext cx="1548914" cy="1120938"/>
+          <a:off x="489858" y="2247506"/>
+          <a:ext cx="1687286" cy="1225387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,16 +728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>156180</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47323</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>557157</xdr:rowOff>
+      <xdr:rowOff>513614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1179606</xdr:colOff>
+      <xdr:colOff>2093561</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>268045</xdr:rowOff>
+      <xdr:rowOff>468086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -763,8 +766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="156180" y="4031877"/>
-          <a:ext cx="1320606" cy="442408"/>
+          <a:off x="341237" y="3997043"/>
+          <a:ext cx="2046238" cy="683814"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -775,16 +778,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>31060</xdr:rowOff>
+      <xdr:rowOff>78491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1981200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>337510</xdr:rowOff>
+      <xdr:rowOff>468086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,8 +817,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="179295" y="4603060"/>
-          <a:ext cx="1398494" cy="1041556"/>
+          <a:off x="533399" y="5205662"/>
+          <a:ext cx="1741715" cy="1118938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,15 +840,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88084</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>860970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1246095</xdr:colOff>
+      <xdr:colOff>2171403</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>191600</xdr:rowOff>
+      <xdr:rowOff>465909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -868,8 +871,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6130296"/>
-          <a:ext cx="1541930" cy="838623"/>
+          <a:off x="152400" y="7261770"/>
+          <a:ext cx="2312917" cy="1250859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>673621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>724021</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>39830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BF4A44-28B1-713C-18FE-2A19331237EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24910473" y="2128348"/>
+          <a:ext cx="2275730" cy="1375118"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,147 +1227,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
   <dimension ref="A2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O8"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" style="1"/>
     <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
     <col min="10" max="13" width="11.5546875" style="1"/>
     <col min="14" max="14" width="22.44140625" style="1" customWidth="1"/>
     <col min="15" max="16" width="15.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="32.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="36.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="39.88671875" style="1" customWidth="1"/>
     <col min="20" max="20" width="24.6640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11" t="s">
+      <c r="P3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T4" s="11"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -1344,30 +1392,31 @@
       <c r="M5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>52</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>93</v>
+      <c r="P5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1389,37 +1438,38 @@
       <c r="M6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
@@ -1427,39 +1477,43 @@
       <c r="J7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>83</v>
+      <c r="P7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>96</v>
+      <c r="T7" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1467,38 +1521,40 @@
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="12"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="T8" s="11"/>
     </row>
     <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1513,39 +1569,40 @@
       <c r="J9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="K9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="M9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>84</v>
+      <c r="P9" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1558,35 +1615,36 @@
       <c r="J10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="12"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>105</v>
-      </c>
     </row>
-    <row r="11" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -1601,39 +1659,40 @@
       <c r="J11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>55</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>84</v>
+        <v>64</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
-    <row r="12" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="10" t="s">
         <v>37</v>
       </c>
@@ -1646,87 +1705,87 @@
       <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="P12" s="11"/>
       <c r="Q12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
-    <row r="13" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="17" t="s">
+    <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>117</v>
+      <c r="O13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1734,36 +1793,36 @@
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T14" s="12"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="10" t="s">
         <v>48</v>
       </c>
@@ -1776,34 +1835,75 @@
       <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="S15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="T15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
+  <mergeCells count="71">
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B2:O2"/>
@@ -1820,49 +1920,13 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J12">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Moyen">

--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC62781-B26F-47F9-8E32-012F82012850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2635AD4B-AE57-4653-81AA-FEEB3A18540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -531,6 +531,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,15 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="489858" y="2247506"/>
-          <a:ext cx="1687286" cy="1225387"/>
+          <a:off x="490049" y="2254381"/>
+          <a:ext cx="1687286" cy="1216220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,8 +766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="341237" y="3997043"/>
-          <a:ext cx="2046238" cy="683814"/>
+          <a:off x="341428" y="3989403"/>
+          <a:ext cx="2046238" cy="689736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -848,7 +848,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2171403</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>465909</xdr:rowOff>
+      <xdr:rowOff>185172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="7261770"/>
-          <a:ext cx="2312917" cy="1250859"/>
+          <a:off x="152400" y="7090654"/>
+          <a:ext cx="2313108" cy="1062097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,8 +915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24910473" y="2128348"/>
-          <a:ext cx="2275730" cy="1375118"/>
+          <a:off x="25922341" y="2144147"/>
+          <a:ext cx="2273785" cy="1371472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,8 +1227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
   <dimension ref="A2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,29 +1248,29 @@
     <col min="14" max="14" width="22.44140625" style="1" customWidth="1"/>
     <col min="15" max="16" width="15.33203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="36.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="39.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="47.109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="24.6640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -1275,91 +1278,91 @@
     </row>
     <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17" t="s">
+      <c r="S3" s="12"/>
+      <c r="T3" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
       <c r="R4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1413,7 +1416,7 @@
     </row>
     <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1489,7 +1492,7 @@
       <c r="N7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="15" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -1510,7 +1513,7 @@
     </row>
     <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1530,7 +1533,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="1" t="s">
         <v>96</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1597,9 +1600,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1662,7 +1665,7 @@
       <c r="K11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -1689,7 +1692,7 @@
     </row>
     <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1706,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="16"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="7" t="s">
@@ -1725,7 +1728,7 @@
     </row>
     <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1749,10 +1752,10 @@
       <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1761,7 +1764,7 @@
       <c r="N13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="13" t="s">
         <v>124</v>
       </c>
       <c r="P13" s="11" t="s">
@@ -1780,9 +1783,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1798,13 +1801,13 @@
       <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="16"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="1" t="s">
         <v>113</v>
@@ -1817,9 +1820,9 @@
       </c>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1835,13 +1838,13 @@
       <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N15" s="11"/>
-      <c r="O15" s="16"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="1" t="s">
         <v>114</v>
@@ -1856,35 +1859,27 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="P13:P15"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="P9:P10"/>
@@ -1901,32 +1896,40 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J12">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Moyen">

--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2635AD4B-AE57-4653-81AA-FEEB3A18540D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCEDAD-7C11-4646-AD97-8EA5156EE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -531,15 +531,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -548,6 +539,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,11 +1227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
   <dimension ref="A2:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,22 +1255,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -1278,91 +1278,91 @@
     </row>
     <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12" t="s">
+      <c r="S3" s="17"/>
+      <c r="T3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
       <c r="R4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="12"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1416,7 +1416,7 @@
     </row>
     <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1492,7 +1492,7 @@
       <c r="N7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="11" t="s">
@@ -1513,7 +1513,7 @@
     </row>
     <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1533,7 +1533,7 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="15"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="1" t="s">
         <v>96</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1602,7 +1602,7 @@
     </row>
     <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -1665,7 +1665,7 @@
       <c r="K11" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="16" t="s">
         <v>45</v>
       </c>
       <c r="M11" s="11" t="s">
@@ -1690,9 +1690,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1709,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="13"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="7" t="s">
@@ -1726,9 +1726,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1752,10 +1752,10 @@
       <c r="J13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1764,7 +1764,7 @@
       <c r="N13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="16" t="s">
         <v>124</v>
       </c>
       <c r="P13" s="11" t="s">
@@ -1785,7 +1785,7 @@
     </row>
     <row r="14" spans="1:20" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1801,13 +1801,13 @@
       <c r="J14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="11"/>
-      <c r="O14" s="13"/>
+      <c r="O14" s="16"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="1" t="s">
         <v>113</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1838,13 +1838,13 @@
       <c r="J15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N15" s="11"/>
-      <c r="O15" s="13"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="1" t="s">
         <v>114</v>
@@ -1859,28 +1859,39 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="P7:P8"/>
@@ -1896,40 +1907,29 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="P13:P15"/>
   </mergeCells>
   <conditionalFormatting sqref="J5:J12">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Moyen">

--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBCEDAD-7C11-4646-AD97-8EA5156EE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F2A40-169E-407F-974B-D3E75DFCC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="126">
   <si>
     <t>Taches de debuggage</t>
   </si>
@@ -333,9 +333,6 @@
     <t xml:space="preserve">Run, s'étonne que ca ne fonctionne pas, puis lit la console, retourne voir la lecon, essaie de comprendre quel chiffre mettre </t>
   </si>
   <si>
-    <t>Capacité de logique et débogage d'état</t>
-  </si>
-  <si>
     <t>Run, se rend compte que Thymio ne change pas d'état, manipule Thymio, va voir la lecon, corrige</t>
   </si>
   <si>
@@ -400,6 +397,12 @@
   </si>
   <si>
     <t>Possible en VPL (preuve) et en scratch, utiliser les lumières pour les etats</t>
+  </si>
+  <si>
+    <t>Capacité de logique et débogage d'état, manipulation du robot</t>
+  </si>
+  <si>
+    <t>Debugging strategies - identification, representation, selection, application, evaluation</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -520,9 +523,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -889,8 +889,8 @@
       <xdr:rowOff>673621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>724021</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>460251</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>39830</xdr:rowOff>
     </xdr:to>
@@ -1225,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
-  <dimension ref="A2:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,169 +1242,195 @@
     <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.5546875" style="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="11.5546875" style="1"/>
-    <col min="14" max="14" width="22.44140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="11.5546875" style="1"/>
+    <col min="13" max="13" width="22.44140625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="1"/>
     <col min="17" max="17" width="22.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="47.109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="24.6640625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5546875" style="1"/>
+    <col min="21" max="21" width="26.88671875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
     </row>
-    <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="17" t="s">
+    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17" t="s">
+      <c r="S3" s="16"/>
+      <c r="T3" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="17"/>
+      <c r="T4" s="16"/>
     </row>
-    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="10" t="s">
         <v>92</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1414,39 +1440,39 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10" t="s">
+    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1454,49 +1480,49 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
+    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>94</v>
@@ -1507,34 +1533,34 @@
       <c r="S7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="11" t="s">
-        <v>123</v>
+      <c r="T7" s="10" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10" t="s">
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
       <c r="Q8" s="1" t="s">
         <v>96</v>
       </c>
@@ -1544,51 +1570,51 @@
       <c r="S8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T8" s="11"/>
+      <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>99</v>
@@ -1600,275 +1626,280 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10" t="s">
+    <row r="10" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="Q10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>104</v>
+      <c r="J13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
+    <row r="14" spans="1:21" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T14" s="10"/>
     </row>
-    <row r="12" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="s">
+    <row r="15" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="11">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="R15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" s="11"/>
+      <c r="T15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:U2"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
@@ -1876,45 +1907,43 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="O7:O8"/>
     <mergeCell ref="B13:B15"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O13:O15"/>
-    <mergeCell ref="N5:N6"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
     <mergeCell ref="N13:N15"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M13:M15"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="C7:C8"/>
@@ -1923,23 +1952,23 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="T13:T15"/>
-    <mergeCell ref="L13:L15"/>
     <mergeCell ref="K13:K15"/>
+    <mergeCell ref="J13:J15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D13:D15"/>
-    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="O13:O15"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:J12">
+  <conditionalFormatting sqref="I5:I12">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Moyen">
-      <formula>NOT(ISERROR(SEARCH("Moyen",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Moyen",I5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Difficile">
-      <formula>NOT(ISERROR(SEARCH("Difficile",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Difficile",I5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Facile">
-      <formula>NOT(ISERROR(SEARCH("Facile",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Facile",I5)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1962,20 +1991,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:L7 K9:L9 K11:L11">
+  <conditionalFormatting sqref="J5:K7 J9:K9 J11:K11">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="moyen">
-      <formula>NOT(ISERROR(SEARCH("moyen",K5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("moyen",J5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="court">
-      <formula>NOT(ISERROR(SEARCH("court",K5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("court",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L7 L9 L11">
+  <conditionalFormatting sqref="K5:K7 K9 K11">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Mauvais">
-      <formula>NOT(ISERROR(SEARCH("Mauvais",L5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mauvais",K5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Bon">
-      <formula>NOT(ISERROR(SEARCH("Bon",L5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bon",K5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F2A40-169E-407F-974B-D3E75DFCC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28109C4-5AE4-4710-B669-15C891CB127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>Taches de debuggage</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Wrong pivot</t>
   </si>
   <si>
-    <t>3. Sensors</t>
-  </si>
-  <si>
     <t>Wrong index</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Non, trop d'info</t>
   </si>
   <si>
-    <t>4. Buttons</t>
-  </si>
-  <si>
     <t>Missing global</t>
   </si>
   <si>
@@ -270,9 +264,6 @@
     <t>9 minutes</t>
   </si>
   <si>
-    <t>15 minutes</t>
-  </si>
-  <si>
     <t>Sequentiel</t>
   </si>
   <si>
@@ -403,6 +394,30 @@
   </si>
   <si>
     <t>Debugging strategies - identification, representation, selection, application, evaluation</t>
+  </si>
+  <si>
+    <t>Scotch on sensor</t>
+  </si>
+  <si>
+    <t>Un bout de scotch bloque un des capteurs au sol, il faut l'enlever</t>
+  </si>
+  <si>
+    <t>Environnemental</t>
+  </si>
+  <si>
+    <t>Capacité de réfléchir en dehors du programme</t>
+  </si>
+  <si>
+    <t>Run, et se rendent compte que Thymio ne réagit pas correctement aux capteur, print() les capteurs du sol pour se rendre compte que =0, manipule le thymio pour voir le bout de scotch</t>
+  </si>
+  <si>
+    <t>Vont difficilement comprendre que l'erreur puisse ne pas provenir du programme, mais de l'environnement. Il faut avoir le reflex de print et avoir assez confiance pour se dire que les valeurs sont dues à un défault du robot et pas du programme</t>
+  </si>
+  <si>
+    <t>3. Buttons</t>
+  </si>
+  <si>
+    <t>4. Sensors</t>
   </si>
 </sst>
 </file>
@@ -443,7 +458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +501,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -499,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -528,7 +549,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -540,13 +570,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,14 +588,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF29292"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFEF9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -592,7 +609,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEF9999"/>
+          <bgColor rgb="FFF29292"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -629,15 +653,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>39059</xdr:colOff>
+      <xdr:colOff>246877</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160045</xdr:rowOff>
+      <xdr:rowOff>173900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1817914</xdr:colOff>
+      <xdr:colOff>2025732</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>583349</xdr:rowOff>
+      <xdr:rowOff>597204</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,8 +690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="332973" y="1085331"/>
-          <a:ext cx="1778855" cy="967589"/>
+          <a:off x="537822" y="1074445"/>
+          <a:ext cx="1778855" cy="977486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,15 +703,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>195944</xdr:colOff>
+      <xdr:colOff>403763</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>48592</xdr:rowOff>
+      <xdr:rowOff>131719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1883230</xdr:colOff>
+      <xdr:colOff>2091049</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>903864</xdr:rowOff>
+      <xdr:rowOff>789708</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,8 +740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="490049" y="2254381"/>
-          <a:ext cx="1687286" cy="1216220"/>
+          <a:off x="694708" y="2320737"/>
+          <a:ext cx="1687286" cy="1018207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,15 +753,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47323</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>513614</xdr:rowOff>
+      <xdr:colOff>185869</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>305795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2093561</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>468086</xdr:rowOff>
+      <xdr:colOff>2232107</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>260266</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,8 +790,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="341428" y="3989403"/>
-          <a:ext cx="2046238" cy="689736"/>
+          <a:off x="476814" y="5238013"/>
+          <a:ext cx="2046238" cy="688762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,15 +803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>239485</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78491</xdr:rowOff>
+      <xdr:colOff>364175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>230892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1981200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>468086</xdr:rowOff>
+      <xdr:colOff>2105890</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>620487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -817,8 +841,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="533399" y="5205662"/>
-          <a:ext cx="1741715" cy="1118938"/>
+          <a:off x="655120" y="3694528"/>
+          <a:ext cx="1741715" cy="1123886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,16 +863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>860970</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>329648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2171403</xdr:colOff>
+      <xdr:colOff>2379221</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>185172</xdr:rowOff>
+      <xdr:rowOff>517682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -871,8 +895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="7090654"/>
-          <a:ext cx="2313108" cy="1062097"/>
+          <a:off x="360218" y="7284630"/>
+          <a:ext cx="2309948" cy="1019307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,22 +908,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>673621</xdr:rowOff>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>193964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>460251</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>39830</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1617681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>651164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
+        <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BF4A44-28B1-713C-18FE-2A19331237EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E366322-57C0-4300-80F8-1BC976C85B31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -915,8 +939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25922341" y="2144147"/>
-          <a:ext cx="2273785" cy="1371472"/>
+          <a:off x="26434474" y="2382982"/>
+          <a:ext cx="1409862" cy="817418"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,28 +1249,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="36.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="11.5546875" style="1"/>
+    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
     <col min="9" max="12" width="11.5546875" style="1"/>
     <col min="13" max="13" width="22.44140625" style="1" customWidth="1"/>
     <col min="14" max="15" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" style="1"/>
+    <col min="16" max="16" width="16.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.33203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="43.5546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="47.109375" style="1" customWidth="1"/>
@@ -1257,148 +1282,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="F3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="16" t="s">
+      <c r="M3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16" t="s">
-        <v>57</v>
-      </c>
+      <c r="R3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="T4" s="16"/>
+        <v>82</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="12">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
+      <c r="F5" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>9</v>
@@ -1413,39 +1440,39 @@
         <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>92</v>
+      <c r="Q5" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="9" t="s">
         <v>10</v>
       </c>
@@ -1459,40 +1486,40 @@
         <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="M6" s="12"/>
       <c r="N6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="10"/>
+        <v>58</v>
+      </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>32</v>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>19</v>
@@ -1503,408 +1530,458 @@
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>82</v>
+      <c r="M7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="T8" s="10"/>
+        <v>95</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="J9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>83</v>
+      <c r="O9" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="12"/>
       <c r="P10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12">
         <v>2</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>32</v>
+      <c r="F11" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="P11" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="O12" s="12"/>
       <c r="P12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>32</v>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>115</v>
+        <v>48</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="10"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="10"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T14" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="T14" s="12"/>
     </row>
     <row r="15" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="10"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="12"/>
       <c r="P15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="T15" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:U2"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L9:L10"/>
+  <mergeCells count="73">
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="G3:G4"/>
@@ -1917,60 +1994,66 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="O9:O10"/>
     <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O9:O10"/>
     <mergeCell ref="O7:O8"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B1:U2"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="T3:T4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
+  <conditionalFormatting sqref="J5:K7 J11:K11 J9:K9">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="moyen">
+      <formula>NOT(ISERROR(SEARCH("moyen",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="court">
+      <formula>NOT(ISERROR(SEARCH("court",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K7 K11 K9">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Mauvais">
+      <formula>NOT(ISERROR(SEARCH("Mauvais",K5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Bon">
+      <formula>NOT(ISERROR(SEARCH("Bon",K5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I5:I12">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Moyen">
+    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="Moyen">
       <formula>NOT(ISERROR(SEARCH("Moyen",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Difficile">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="Difficile">
       <formula>NOT(ISERROR(SEARCH("Difficile",I5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Facile">
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Facile">
       <formula>NOT(ISERROR(SEARCH("Facile",I5)))</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="&quot;Difficile&quot;"/>
         <cfvo type="formula" val="&quot;Moyen&quot;"/>
@@ -1980,7 +2063,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1991,22 +2074,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K7 J9:K9 J11:K11">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="moyen">
-      <formula>NOT(ISERROR(SEARCH("moyen",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="court">
-      <formula>NOT(ISERROR(SEARCH("court",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K7 K9 K11">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Mauvais">
-      <formula>NOT(ISERROR(SEARCH("Mauvais",K5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Bon">
-      <formula>NOT(ISERROR(SEARCH("Bon",K5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28109C4-5AE4-4710-B669-15C891CB127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036480A9-2D2D-4DD5-B3DB-41E3366C6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$U$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1251,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2075,7 +2078,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="20" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Recap_exos_stage2.xlsx
+++ b/Recap_exos_stage2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036480A9-2D2D-4DD5-B3DB-41E3366C6D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F66636-ACBC-4F42-9135-FD7B8EE2A7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AC49E7E1-8857-4F13-9155-40FA21DFD908}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$U$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$T$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t>Taches de debuggage</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>Capacité de logique et débogage d'état, manipulation du robot</t>
-  </si>
-  <si>
-    <t>Debugging strategies - identification, representation, selection, application, evaluation</t>
   </si>
   <si>
     <t>Scotch on sensor</t>
@@ -511,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -519,61 +516,364 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,13 +955,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>246877</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>173900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2025732</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>597204</xdr:rowOff>
@@ -705,13 +1005,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>403763</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>131719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2091049</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>789708</xdr:rowOff>
@@ -755,13 +1055,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>185869</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>305795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2232107</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>260266</xdr:rowOff>
@@ -805,13 +1105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>364175</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>230892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2105890</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>620487</xdr:rowOff>
@@ -866,13 +1166,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>329648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>2379221</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>517682</xdr:rowOff>
@@ -910,13 +1210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>207819</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>193964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1617681</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>651164</xdr:rowOff>
@@ -1252,809 +1552,818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB55087F-BEDA-4674-8F2A-2B3E9A08A28F}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11:F12"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="12" width="11.5546875" style="1"/>
-    <col min="13" max="13" width="22.44140625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="43.5546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="47.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="26.88671875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="36.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="11.5546875" style="1"/>
+    <col min="12" max="12" width="22.44140625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="47.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
     </row>
-    <row r="2" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
+    <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="42"/>
     </row>
-    <row r="3" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="12"/>
+      <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="5" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="R4" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="12"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="46"/>
     </row>
-    <row r="5" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="12">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="L5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="N5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="O5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="28" t="s">
         <v>85</v>
       </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="48"/>
     </row>
-    <row r="6" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9" t="s">
+    <row r="6" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="7" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="2" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="1" t="s">
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="14" t="s">
         <v>88</v>
       </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="50"/>
     </row>
-    <row r="7" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="12">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="L7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="O7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="Q7" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="R7" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="S7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="U7" s="12"/>
+      <c r="T7" s="51"/>
     </row>
-    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9" t="s">
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="2" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="R8" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="52"/>
     </row>
-    <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="48"/>
+    </row>
+    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="13"/>
+      <c r="O10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="50"/>
+    </row>
+    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F11" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="12" t="s">
+      <c r="I11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="O11" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="48"/>
     </row>
-    <row r="10" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="1" t="s">
+    <row r="12" spans="1:20" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="13"/>
+      <c r="O12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="50"/>
+    </row>
+    <row r="13" spans="1:20" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="2" t="s">
+      <c r="K13" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="P13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="51"/>
+    </row>
+    <row r="14" spans="1:20" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="54"/>
+    </row>
+    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="53"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="54"/>
+    </row>
+    <row r="16" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="6" t="s">
+      <c r="G16" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="T13" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="1" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="L16" s="57"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="S16" s="57"/>
+      <c r="T16" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="F13:F16"/>
+  <mergeCells count="71">
+    <mergeCell ref="S13:T16"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="C13:C16"/>
-    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="J13:J16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="L13:L16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="M13:M16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="I11:I12"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="B1:U2"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A1:T2"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="T7:T8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="S3:T4"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5:K7 J11:K11 J9:K9">
+  <conditionalFormatting sqref="I5:J7 I11:J11 I9:J9">
     <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="moyen">
-      <formula>NOT(ISERROR(SEARCH("moyen",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("moyen",I5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="court">
-      <formula>NOT(ISERROR(SEARCH("court",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("court",I5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K7 K11 K9">
+  <conditionalFormatting sqref="J5:J7 J11 J9">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Mauvais">
-      <formula>NOT(ISERROR(SEARCH("Mauvais",K5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mauvais",J5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Bon">
-      <formula>NOT(ISERROR(SEARCH("Bon",K5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Bon",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I12">
+  <conditionalFormatting sqref="H5:H12">
     <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="Moyen">
-      <formula>NOT(ISERROR(SEARCH("Moyen",I5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Moyen",H5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="Difficile">
-      <formula>NOT(ISERROR(SEARCH("Difficile",I5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Difficile",H5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Facile">
-      <formula>NOT(ISERROR(SEARCH("Facile",I5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Facile",H5)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
